--- a/data/trans_orig/Q25_A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A8478C-FFA0-4F31-8A0D-C0E7ED724107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AECE0084-C775-4376-9351-458D3C364048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3DE0591-77A2-4B7B-8DC5-8AF28A17A15E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{041B1EE4-6051-4A2C-BB71-0C4541259183}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3780,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E836A7-8B8D-473B-8488-778AE07D780B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6F9F88-C6C2-4E15-8324-44ACE4DCDD36}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6229,7 +6229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E9DA7D-AD4D-448F-929D-04B90207A1C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28678349-B35F-460D-BB0D-C7B696C03C5A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8648,7 +8648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F35D1BF-9CA2-4776-80AD-87F802AE6DB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7F1816-7082-42C8-9A82-8E86BC796D33}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11097,7 +11097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7389EA8B-645C-47E4-806B-9A50DA19A115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00C4455-32EA-4809-9FF2-08377F9E1CDF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q25_A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en función del tiempo en años desde que dejó de fumar</t>
+          <t>Tiempo medio en años desde que dejó de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 12,43</t>
+          <t>7,83; 12,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 13,97</t>
+          <t>8,84; 13,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 13,71</t>
+          <t>9,37; 13,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,83; 19,84</t>
+          <t>13,41; 19,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,43</t>
+          <t>2,65; 7,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,05</t>
+          <t>5,77; 11,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 15,48</t>
+          <t>6,02; 15,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 16,02</t>
+          <t>9,27; 16,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,36</t>
+          <t>6,37; 10,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,42</t>
+          <t>8,39; 12,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,78</t>
+          <t>8,59; 12,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 18,1</t>
+          <t>12,96; 18,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,29</t>
+          <t>9,51; 13,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,66; 15,51</t>
+          <t>10,8; 15,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,58</t>
+          <t>9,04; 13,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 16,69</t>
+          <t>11,81; 16,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,44</t>
+          <t>3,81; 8,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,13</t>
+          <t>5,19; 8,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 14,5</t>
+          <t>7,19; 15,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 14,41</t>
+          <t>9,54; 14,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 11,73</t>
+          <t>8,62; 12,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,88</t>
+          <t>9,3; 12,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,03</t>
+          <t>9,01; 12,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,06</t>
+          <t>11,47; 15,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 14,31</t>
+          <t>9,55; 14,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,0</t>
+          <t>9,61; 13,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,8</t>
+          <t>10,93; 16,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,61; 18,32</t>
+          <t>12,59; 18,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,23</t>
+          <t>3,01; 6,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,47</t>
+          <t>4,69; 8,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,65</t>
+          <t>5,02; 9,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 18,62</t>
+          <t>8,87; 17,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,48</t>
+          <t>8,64; 12,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 11,98</t>
+          <t>8,55; 12,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 13,37</t>
+          <t>9,46; 13,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,63; 16,35</t>
+          <t>11,55; 16,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 11,44</t>
+          <t>8,25; 11,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 15,09</t>
+          <t>10,35; 14,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,79; 16,22</t>
+          <t>11,59; 16,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 20,68</t>
+          <t>15,3; 20,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,5</t>
+          <t>4,84; 8,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,87</t>
+          <t>6,8; 12,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,86</t>
+          <t>6,97; 12,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,9; 17,96</t>
+          <t>12,77; 18,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,13</t>
+          <t>7,52; 10,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 13,67</t>
+          <t>9,98; 13,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,08</t>
+          <t>10,63; 13,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,89</t>
+          <t>15,2; 19,09</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,01</t>
+          <t>8,62; 14,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 17,24</t>
+          <t>9,71; 17,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,46; 17,92</t>
+          <t>10,76; 18,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 17,28</t>
+          <t>9,91; 17,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,11</t>
+          <t>3,85; 9,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,46</t>
+          <t>5,3; 11,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,96</t>
+          <t>2,34; 5,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,99</t>
+          <t>7,16; 15,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,45</t>
+          <t>7,32; 11,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,58</t>
+          <t>8,8; 14,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,74</t>
+          <t>8,48; 13,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,34</t>
+          <t>9,71; 15,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,39</t>
+          <t>6,77; 11,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,92; 13,49</t>
+          <t>8,84; 13,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 15,1</t>
+          <t>9,88; 15,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,18</t>
+          <t>13,5; 19,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,52</t>
+          <t>2,74; 5,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,8</t>
+          <t>4,28; 10,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,65</t>
+          <t>4,42; 10,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,86</t>
+          <t>6,94; 16,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,3</t>
+          <t>5,88; 9,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 12,22</t>
+          <t>8,46; 12,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,21</t>
+          <t>9,04; 13,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,94</t>
+          <t>12,95; 17,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,63; 13,27</t>
+          <t>9,51; 13,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,99; 14,98</t>
+          <t>11,17; 15,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,55</t>
+          <t>9,02; 12,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,36; 19,4</t>
+          <t>15,33; 19,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,73</t>
+          <t>6,52; 11,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 9,18</t>
+          <t>6,43; 9,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,1</t>
+          <t>6,77; 9,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,42; 15,73</t>
+          <t>11,58; 15,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,17; 12,16</t>
+          <t>9,28; 12,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 12,6</t>
+          <t>9,74; 12,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,92</t>
+          <t>8,6; 10,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,21; 17,28</t>
+          <t>14,26; 17,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,44</t>
+          <t>9,97; 13,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,56; 13,34</t>
+          <t>9,57; 13,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,92; 16,97</t>
+          <t>12,97; 17,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,9; 17,63</t>
+          <t>3,15; 17,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,89</t>
+          <t>7,07; 10,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,14</t>
+          <t>5,83; 9,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,75</t>
+          <t>9,21; 13,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,46; 14,75</t>
+          <t>9,48; 14,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,13</t>
+          <t>9,31; 12,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,62; 11,5</t>
+          <t>8,77; 11,78</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12,07; 15,14</t>
+          <t>12,05; 15,05</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,31; 16,2</t>
+          <t>3,58; 16,16</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,16; 11,58</t>
+          <t>10,08; 11,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,25; 12,95</t>
+          <t>11,28; 12,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,88; 13,51</t>
+          <t>11,84; 13,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,02; 16,68</t>
+          <t>6,88; 16,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,72</t>
+          <t>5,94; 7,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,84; 8,46</t>
+          <t>6,87; 8,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,96; 9,87</t>
+          <t>7,99; 9,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,79; 13,99</t>
+          <t>11,76; 14,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,29</t>
+          <t>9,07; 10,24</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,03; 11,31</t>
+          <t>10,08; 11,29</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,7; 12,01</t>
+          <t>10,7; 12,03</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,36</t>
+          <t>7,35; 15,41</t>
         </is>
       </c>
     </row>
